--- a/WEBSoLienLacDienTu/WEBSoLienLacDienTu/Content/Upload/Import_DataQuiz.xlsx
+++ b/WEBSoLienLacDienTu/WEBSoLienLacDienTu/Content/Upload/Import_DataQuiz.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20374"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\unfor\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AC1884-06FF-4D6F-BCD4-5AEC89AD5B21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFCEC85-2CCC-4823-84B0-90932AD57446}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{1859CD75-98FB-4EEA-AAFD-28C0B620F1C6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="151">
   <si>
     <t>Câu Hỏi</t>
   </si>
@@ -33,16 +33,451 @@
     <t>Độ Khó</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Câu Đúng</t>
+  </si>
+  <si>
     <t>Giải Thích</t>
   </si>
   <si>
-    <t>Câu Trả Lời</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 + 1 </t>
-  </si>
-  <si>
-    <t>vì 4</t>
+    <t>chú thích</t>
+  </si>
+  <si>
+    <t>độ khó</t>
+  </si>
+  <si>
+    <t>từ 1 đến 3</t>
+  </si>
+  <si>
+    <t>câu đúng</t>
+  </si>
+  <si>
+    <t>nhập a,b,c,d</t>
+  </si>
+  <si>
+    <t>Với a = 4; b = -5 thì tích a2b bằng:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">–80 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cách tính đúng là</t>
+  </si>
+  <si>
+    <t>22. 23= 25</t>
+  </si>
+  <si>
+    <t>22. 23= 26</t>
+  </si>
+  <si>
+    <t>22. 23= 46</t>
+  </si>
+  <si>
+    <t>22. 23= 45</t>
+  </si>
+  <si>
+    <t>Cách tính đúng</t>
+  </si>
+  <si>
+    <t>43. 44= 412</t>
+  </si>
+  <si>
+    <t>43. 44= 1612</t>
+  </si>
+  <si>
+    <t>43. 44= 47</t>
+  </si>
+  <si>
+    <t>43. 44= 87</t>
+  </si>
+  <si>
+    <t>Xét trên tập hợp N, trong các số sau, bội của 14 là:</t>
+  </si>
+  <si>
+    <t>Xét trên tập hợp N, trong các số sau, ước của 14 là:</t>
+  </si>
+  <si>
+    <t>Cả 3 câu A, C và D đều sai</t>
+  </si>
+  <si>
+    <t>Tâp hợp nào chỉ gồm các số nguyên tố:</t>
+  </si>
+  <si>
+    <t>1;7;5;3</t>
+  </si>
+  <si>
+    <t>3;7;10;</t>
+  </si>
+  <si>
+    <t>9;17;15;1</t>
+  </si>
+  <si>
+    <t>7;5;2;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Trong những cách viết sau, cách nào được gọi là phân tích 20 ra thừa số nguyên tố:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20 = 4 . 5 </t>
+  </si>
+  <si>
+    <t>20 = 2 . 10</t>
+  </si>
+  <si>
+    <t>20 = 22. 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20 = 40 : 2</t>
+  </si>
+  <si>
+    <t>Phân tích 24 ra thừa số nguyên tố – Cách dùng đúng là:</t>
+  </si>
+  <si>
+    <t>24 = 4 . 6 = 22. 6</t>
+  </si>
+  <si>
+    <t>24 = 23. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24 = 24 . 1</t>
+  </si>
+  <si>
+    <t>24 = 2 x 12</t>
+  </si>
+  <si>
+    <t>ƯCLN (18; 60) là:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BCNN (10; 14; 16) là</t>
+  </si>
+  <si>
+    <t>24. 5 . 7</t>
+  </si>
+  <si>
+    <t>2 . 5 . 7</t>
+  </si>
+  <si>
+    <t>5 . 7</t>
+  </si>
+  <si>
+    <t>Cho biết 36 = 22. 32; 60 = 22. 3 . 5; 72 = 23. 32. Ta có ƯCLN (36; 60; 72) là</t>
+  </si>
+  <si>
+    <t>23. 32</t>
+  </si>
+  <si>
+    <t>22 .3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23. 3 . 5</t>
+  </si>
+  <si>
+    <t>Tất cả những số nguyên n thích hợp để (n + 4) là ước của 5 là</t>
+  </si>
+  <si>
+    <t>–3; 6</t>
+  </si>
+  <si>
+    <t>–3; -9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3; -9; 3</t>
+  </si>
+  <si>
+    <t>1; -3; -9; -5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kết quả đúng của phép tính 3 – (2 + 3) là:</t>
+  </si>
+  <si>
+    <t>Kết quả đúng của phép tính 3 – ( 2 – 3) là:</t>
+  </si>
+  <si>
+    <t>Kết quả đúng của phép tính 3 – (-2 – 3) là:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kết quả đúng của phép tính 3 + (2 – 3) là</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kết quả đúng của phép tính 26: 2 là:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cho biết –12 . x &lt; 0. Số thích hợp với x có thể là</t>
+  </si>
+  <si>
+    <t>x = -2</t>
+  </si>
+  <si>
+    <t>x = 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> x = -1</t>
+  </si>
+  <si>
+    <t>x = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cho biết n : (-5) &gt; 0. Số thích hợp với n có thể là</t>
+  </si>
+  <si>
+    <t>Tập hợp tất cả các số nguyên x thoả mãn –2 &lt; x &lt; 2 là:</t>
+  </si>
+  <si>
+    <t>;1;1</t>
+  </si>
+  <si>
+    <t>;0;2</t>
+  </si>
+  <si>
+    <t>;0;1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2;1;0;1;2 </t>
+  </si>
+  <si>
+    <t>Tổng tất cả các số nguyên n thoả mãn –2 &lt; n2 là</t>
+  </si>
+  <si>
+    <t>Cho biết –6 . x = 18. Kết quả đúng khi tìm số nguyên x là</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Trên tập hợp các số nguyên Z, cách tính đúng là</t>
+  </si>
+  <si>
+    <t>20 + (-26) = 46</t>
+  </si>
+  <si>
+    <t>20 + (-26) = 6</t>
+  </si>
+  <si>
+    <t>20 + (-26) = -6</t>
+  </si>
+  <si>
+    <t>20 + (-26) = -46</t>
+  </si>
+  <si>
+    <t>Trên tập hợp các số nguyên Z, cách tính đúng là</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10 – 13 = 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10 – 13 = -23</t>
+  </si>
+  <si>
+    <t>10 – 13 = -3</t>
+  </si>
+  <si>
+    <t>10 – 13 không trừ được</t>
+  </si>
+  <si>
+    <t>Trên tập hợp các số nguyên Z, cách tính đúng là:</t>
+  </si>
+  <si>
+    <t>|2002 - | - 2003 | = -1</t>
+  </si>
+  <si>
+    <t>( -5 ). -4 = -20</t>
+  </si>
+  <si>
+    <t>( -150 ):|-50|=30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Trên tập hợp số nguyên Z, các ước của 5 là</t>
+  </si>
+  <si>
+    <t>1 và –1</t>
+  </si>
+  <si>
+    <t>5 và –5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1; -1; 5 </t>
+  </si>
+  <si>
+    <t>1; -1; 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Trên tập hợp số nguyên Z, các ước của –2 là</t>
+  </si>
+  <si>
+    <t>2 và -2</t>
+  </si>
+  <si>
+    <t>1; -1; 2; và –2</t>
+  </si>
+  <si>
+    <t>Có người nói</t>
+  </si>
+  <si>
+    <t>Số nghịch đảo của –3 là 3</t>
+  </si>
+  <si>
+    <t>Số nghịch đảo của –3</t>
+  </si>
+  <si>
+    <t>Chỉ có câu A là đúng</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Số nghịch đảo của</t>
+  </si>
+  <si>
+    <t>Số nghịch đảo của</t>
+  </si>
+  <si>
+    <t>Có người nói:</t>
+  </si>
+  <si>
+    <t>Số nghịch đảo của –1 là 1</t>
+  </si>
+  <si>
+    <t>Số nghịch đảo của –1 là –1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Số nghịch đảo của –1 là cả hai số 1 và –1</t>
+  </si>
+  <si>
+    <t>Không có số nghịch đảo của –1</t>
+  </si>
+  <si>
+    <t>Trong 4 ví dụ sau, ví dụ nào không phải là phân số:</t>
+  </si>
+  <si>
+    <t>3 | 5</t>
+  </si>
+  <si>
+    <t>Với a = 4; b = -5 thì tích a2 b bằng</t>
+  </si>
+  <si>
+    <t>Cách tính đúng là</t>
+  </si>
+  <si>
+    <t>22 . 23 = 26</t>
+  </si>
+  <si>
+    <t>22 . 23 = 46</t>
+  </si>
+  <si>
+    <t>22 . 23 = 45</t>
+  </si>
+  <si>
+    <t>Xét trên tập hợp N, trong các số sau, bội của 14 là</t>
+  </si>
+  <si>
+    <t>Xét trên tập hợp N, trong các số sau, ước của 14 là</t>
+  </si>
+  <si>
+    <t>Cả 3 câu A, C vàD đều sai</t>
+  </si>
+  <si>
+    <t>Trong những cách viết sau, cách nào được gọi là phân tích 20 ra thừa số nguyên tố</t>
+  </si>
+  <si>
+    <t>20 = 4 . 5</t>
+  </si>
+  <si>
+    <t>20 = 22</t>
+  </si>
+  <si>
+    <t>20 = 40 : 2</t>
+  </si>
+  <si>
+    <t>Phân tích 24 ra thừa số nguyên tố – Cách dùng đúng là</t>
+  </si>
+  <si>
+    <t>24 = 24 . 1</t>
+  </si>
+  <si>
+    <t>BCNN (10; 14; 16) là:</t>
+  </si>
+  <si>
+    <t>Cho biết 36 = 22 . 32; 60 = 22 . 3 . 5; 72 = 23 . 32. Ta có ƯCLN (36; 60; 72) là:</t>
+  </si>
+  <si>
+    <t>22 . 3</t>
+  </si>
+  <si>
+    <t>23 . 3 . 5</t>
+  </si>
+  <si>
+    <t>23. 5</t>
+  </si>
+  <si>
+    <t>Cho biết 42 = 2 . 3 . 7; 70 = 5 . 2 . 7; 180 = 22 . 32 . 5. BCNN (42; 70; 180) là</t>
+  </si>
+  <si>
+    <t>22. 32. 7</t>
+  </si>
+  <si>
+    <t>22 . 32 . 5</t>
+  </si>
+  <si>
+    <t>22 . 32 . 5 . 7</t>
+  </si>
+  <si>
+    <t>2 . 3 . 5 . 7</t>
+  </si>
+  <si>
+    <t>1; -3; -9; 3</t>
+  </si>
+  <si>
+    <t>Kết quả đúng của phép tính 3 – (2 + 3) là</t>
+  </si>
+  <si>
+    <t>Gọi S1 là diện tích hình tròn bán kính R1 = 1 cm. S2 là diện tích hình tròn bán kính R2 gấp 2 lần bán kính R1. Ta có</t>
+  </si>
+  <si>
+    <t>S2= 2S1</t>
+  </si>
+  <si>
+    <t>S2= S1</t>
+  </si>
+  <si>
+    <t>S2 = 4S1</t>
+  </si>
+  <si>
+    <t>S2 = 3S1</t>
+  </si>
+  <si>
+    <t>Trên tập hợp số nguyên Z, các ước của –2 là</t>
+  </si>
+  <si>
+    <t>Góc lớn hơn góc vuông là góc tù</t>
+  </si>
+  <si>
+    <t>Góc nhỏ hơn góc bẹt là góc tù</t>
+  </si>
+  <si>
+    <t>Góc lớn hơn góc nhọn là góc tù</t>
+  </si>
+  <si>
+    <t>Góc lớn hơn góc vuông và nhỏ hơn góc bẹt là góc tù</t>
+  </si>
+  <si>
+    <t>Tia phân gác của một góc là:</t>
+  </si>
+  <si>
+    <t>Tia nằm giữa hai cạnh của góc ấy</t>
+  </si>
+  <si>
+    <t>Tia tạo với hai cạnh của góc ấy hai góc bằng nhau</t>
+  </si>
+  <si>
+    <t>Tia nằm giữa hai cạnh của góc và tạo với hai cạnh ấy hai góc bằng nhau</t>
+  </si>
+  <si>
+    <t>Cả 3 câu đều sai</t>
   </si>
 </sst>
 </file>
@@ -78,8 +513,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,15 +830,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48522E7-B23D-4C72-AFAB-ED68EFA0CD92}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
@@ -411,7 +847,7 @@
     <col min="8" max="8" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,27 +855,1168 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>48</v>
+      </c>
+      <c r="D5">
+        <v>28</v>
+      </c>
+      <c r="E5">
+        <v>36</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>28</v>
+      </c>
+      <c r="D6">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>36</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>12</v>
+      </c>
+      <c r="F10">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>-2</v>
+      </c>
+      <c r="D14">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>-2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>-2</v>
+      </c>
+      <c r="E16">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>-2</v>
+      </c>
+      <c r="D17">
+        <v>-4</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>27</v>
+      </c>
+      <c r="F18">
+        <v>28</v>
+      </c>
+      <c r="G18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>15</v>
+      </c>
+      <c r="D20">
+        <v>-15</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>-3</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>24</v>
+      </c>
+      <c r="F23">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" t="s">
+        <v>87</v>
+      </c>
+      <c r="G27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31" t="s">
+        <v>100</v>
+      </c>
+      <c r="G31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" t="s">
+        <v>101</v>
+      </c>
+      <c r="F32" t="s">
+        <v>100</v>
+      </c>
+      <c r="G32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" t="s">
+        <v>105</v>
+      </c>
+      <c r="E33" t="s">
+        <v>106</v>
+      </c>
+      <c r="F33" t="s">
+        <v>107</v>
+      </c>
+      <c r="G33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" t="s">
+        <v>109</v>
+      </c>
+      <c r="F34" t="s">
+        <v>109</v>
+      </c>
+      <c r="G34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>80</v>
+      </c>
+      <c r="D35">
+        <v>-80</v>
+      </c>
+      <c r="E35">
+        <v>11</v>
+      </c>
+      <c r="F35">
+        <v>100</v>
+      </c>
+      <c r="G35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36" t="s">
+        <v>114</v>
+      </c>
+      <c r="G36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>48</v>
+      </c>
+      <c r="D37">
+        <v>28</v>
+      </c>
+      <c r="E37">
+        <v>26</v>
+      </c>
+      <c r="F37">
+        <v>6</v>
+      </c>
+      <c r="G37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>28</v>
+      </c>
+      <c r="D38">
+        <v>14</v>
+      </c>
+      <c r="E38" t="s">
+        <v>117</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+      <c r="G38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" t="s">
+        <v>120</v>
+      </c>
+      <c r="F39" t="s">
+        <v>121</v>
+      </c>
+      <c r="G39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" t="s">
+        <v>123</v>
+      </c>
+      <c r="F40" t="s">
+        <v>42</v>
+      </c>
+      <c r="G40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>36</v>
+      </c>
+      <c r="D41">
+        <v>6</v>
+      </c>
+      <c r="E41">
+        <v>12</v>
+      </c>
+      <c r="F41">
+        <v>30</v>
+      </c>
+      <c r="G41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42">
+        <v>24</v>
+      </c>
+      <c r="E42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" t="s">
+        <v>45</v>
+      </c>
+      <c r="G42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" t="s">
+        <v>126</v>
+      </c>
+      <c r="E43" t="s">
+        <v>127</v>
+      </c>
+      <c r="F43" t="s">
+        <v>128</v>
+      </c>
+      <c r="G43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" t="s">
+        <v>131</v>
+      </c>
+      <c r="E44" t="s">
+        <v>132</v>
+      </c>
+      <c r="F44" t="s">
+        <v>133</v>
+      </c>
+      <c r="G44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" t="s">
+        <v>54</v>
+      </c>
+      <c r="E45" t="s">
+        <v>134</v>
+      </c>
+      <c r="F45" t="s">
+        <v>56</v>
+      </c>
+      <c r="G45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>-2</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <v>8</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>137</v>
+      </c>
+      <c r="D47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E47" t="s">
+        <v>139</v>
+      </c>
+      <c r="F47" t="s">
+        <v>140</v>
+      </c>
+      <c r="G47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>141</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" t="s">
+        <v>95</v>
+      </c>
+      <c r="E48" t="s">
+        <v>96</v>
+      </c>
+      <c r="F48" t="s">
+        <v>93</v>
+      </c>
+      <c r="G48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>142</v>
+      </c>
+      <c r="D49" t="s">
+        <v>143</v>
+      </c>
+      <c r="E49" t="s">
+        <v>144</v>
+      </c>
+      <c r="F49" t="s">
+        <v>145</v>
+      </c>
+      <c r="G49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>147</v>
+      </c>
+      <c r="D50" t="s">
+        <v>148</v>
+      </c>
+      <c r="E50" t="s">
+        <v>149</v>
+      </c>
+      <c r="F50" t="s">
+        <v>150</v>
+      </c>
+      <c r="G50" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>